--- a/data/UAVDataBase.xlsx
+++ b/data/UAVDataBase.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$P$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$3:$P$53</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="175">
   <si>
     <t>Model</t>
   </si>
@@ -270,12 +270,6 @@
     <t>AFT Hirrus</t>
   </si>
   <si>
-    <t>AFT Single Soldier I</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/AFT_UAV#Single_Soldier_I</t>
-  </si>
-  <si>
     <t>AI KC 3400</t>
   </si>
   <si>
@@ -306,16 +300,10 @@
     <t>AI Quadrocopter</t>
   </si>
   <si>
-    <t>AI SY-2000</t>
-  </si>
-  <si>
     <t>ASN-1</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Aisheng_ASN-1#ASN-1</t>
-  </si>
-  <si>
-    <t>ASN-217</t>
   </si>
   <si>
     <t>Wi-Fi</t>
@@ -931,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -990,13 +978,13 @@
         <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>23</v>
@@ -1036,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>18</v>
@@ -1082,7 +1070,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1095,10 +1083,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1126,7 +1114,7 @@
         <v>0.87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1134,7 +1122,7 @@
         <v>25</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1168,7 +1156,7 @@
         <v>2.15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1212,7 +1200,7 @@
         <v>1.2</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1224,91 +1212,97 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C7">
-        <v>90</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
       <c r="F7">
-        <v>60</v>
-      </c>
-      <c r="G7">
-        <v>5000</v>
-      </c>
-      <c r="H7">
-        <v>4.5</v>
-      </c>
-      <c r="I7">
-        <v>2.4769999999999999</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7">
-        <v>1.581</v>
+        <v>30</v>
+      </c>
+      <c r="G7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="7">
+        <v>72</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8" s="7">
-        <v>2000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>7</v>
-      </c>
       <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0.3</v>
-      </c>
+        <v>1.6</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="7">
         <v>1</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="M8" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N8" s="7">
+        <v>50</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1319,80 +1313,82 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D9" s="7">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>0.7</v>
-      </c>
-      <c r="F9" s="7">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9">
+        <v>100</v>
       </c>
       <c r="G9" s="7">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="J9" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0.38</v>
+      </c>
       <c r="K9" s="7">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="7">
+        <v>101</v>
+      </c>
+      <c r="M9">
         <v>-20</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9">
         <v>50</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
       <c r="C10">
-        <v>240</v>
-      </c>
-      <c r="D10" s="7">
+        <v>360</v>
+      </c>
+      <c r="D10">
         <v>60</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
       <c r="F10">
         <v>100</v>
       </c>
-      <c r="G10" s="7">
-        <v>5000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
+      <c r="G10">
+        <v>5500</v>
+      </c>
+      <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>3.4</v>
       </c>
       <c r="J10">
-        <v>0.38</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1.08</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K10">
+        <v>1.8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M10">
         <v>-20</v>
@@ -1400,556 +1396,560 @@
       <c r="N10">
         <v>50</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>84</v>
+      <c r="O10" t="s">
+        <v>82</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J11">
+        <v>0.27</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>360</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
-      <c r="E11">
-        <v>2.5</v>
-      </c>
-      <c r="F11">
-        <v>100</v>
-      </c>
-      <c r="G11">
-        <v>5500</v>
-      </c>
-      <c r="H11">
-        <v>25</v>
-      </c>
-      <c r="I11">
-        <v>3.4</v>
-      </c>
-      <c r="J11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K11">
-        <v>1.8</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M11">
-        <v>-20</v>
-      </c>
-      <c r="N11">
-        <v>50</v>
-      </c>
-      <c r="O11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C12">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
         <v>10</v>
       </c>
-      <c r="D12" s="7">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G12" s="7">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="H12" s="7">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="I12" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J12">
-        <v>0.27</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="7">
-        <v>0.55000000000000004</v>
+        <v>1.8</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>45</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+      <c r="F13">
+        <v>80</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>240</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="M13">
+        <v>-20</v>
+      </c>
+      <c r="N13">
+        <v>50</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
         <v>60</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>60</v>
-      </c>
-      <c r="G13" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H13" s="7">
-        <v>20</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1.28</v>
-      </c>
-      <c r="K13" s="7">
-        <v>2.04</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>120</v>
       </c>
       <c r="D14" s="7">
         <v>10</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14">
+        <v>0.23</v>
+      </c>
       <c r="F14">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="7">
-        <v>6.5</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.42</v>
+      </c>
       <c r="K14" s="7">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="M14" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N14" s="7">
+        <v>50</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>95</v>
+      <c r="A15" t="s">
+        <v>148</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D15" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="F15">
         <v>120</v>
       </c>
       <c r="G15" s="7">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="7">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="7">
-        <v>1.7</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>92</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
         <v>20</v>
       </c>
       <c r="E16">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="1"/>
+        <v>1.65</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.26</v>
+      </c>
       <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16">
-        <v>-20</v>
-      </c>
-      <c r="N16">
-        <v>50</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="F17">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
-        <v>2.4300000000000002</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="J17" s="7">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="K17" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M17" s="7">
-        <v>-20</v>
-      </c>
-      <c r="N17" s="7">
-        <v>50</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
       <c r="O17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D18" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="G18" s="7">
         <v>3000</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="I18" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.25</v>
+      </c>
       <c r="K18" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L18" t="s">
-        <v>96</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="H19" s="7">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>1.1000000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="J19" s="7">
-        <v>0.26</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="K19" s="7">
-        <v>0.8</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="M19" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N19" s="7">
+        <v>40</v>
+      </c>
       <c r="O19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0.19</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>6.14</v>
       </c>
       <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0.13</v>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.39800000000000002</v>
       </c>
       <c r="K20" s="7">
-        <v>0.7</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N20" s="7">
+        <v>50</v>
+      </c>
       <c r="O20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0.3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21">
-        <v>45</v>
+        <v>73.8</v>
       </c>
       <c r="G21" s="7">
         <v>3000</v>
       </c>
       <c r="H21" s="7">
-        <v>1.6</v>
+        <v>6.14</v>
       </c>
       <c r="I21" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0.25</v>
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J21">
+        <v>0.42699999999999999</v>
       </c>
       <c r="K21" s="7">
-        <v>0.7</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="M21" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N21" s="7">
+        <v>50</v>
+      </c>
       <c r="O21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>115</v>
+      <c r="A22" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="G22" s="7">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="I22" s="7">
-        <v>0.60499999999999998</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="J22" s="7">
-        <v>0.60499999999999998</v>
-      </c>
-      <c r="K22" s="7">
-        <v>0.60499999999999998</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.24199999999999999</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="N22" s="7">
         <v>40</v>
@@ -1958,235 +1958,235 @@
         <v>25</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D23" s="7">
         <v>8</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H23" s="7">
-        <v>6.14</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="I23" s="7">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="J23">
-        <v>0.39800000000000002</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.33500000000000002</v>
       </c>
       <c r="K23" s="7">
-        <v>0.88600000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="N23" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D24" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24">
-        <v>73.8</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7">
         <v>3000</v>
       </c>
       <c r="H24" s="7">
-        <v>6.14</v>
+        <v>0.249</v>
       </c>
       <c r="I24" s="7">
-        <v>0.88300000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="J24">
-        <v>0.42699999999999999</v>
+        <v>5.5E-2</v>
       </c>
       <c r="K24" s="7">
-        <v>0.88600000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="G25" s="7">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="H25" s="7">
-        <v>0.89900000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I25" s="7">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K25">
-        <v>0.24199999999999999</v>
+        <v>0.35</v>
+      </c>
+      <c r="J25">
+        <v>0.19</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M25" s="7">
         <v>-10</v>
       </c>
       <c r="N25" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>118</v>
+      <c r="A26" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
-        <v>0.90700000000000003</v>
+        <v>1.3</v>
       </c>
       <c r="I26" s="7">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="J26" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.35</v>
+      </c>
+      <c r="J26">
+        <v>0.19</v>
       </c>
       <c r="K26" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>-10</v>
       </c>
       <c r="N26" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D27" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="H27" s="7">
-        <v>0.249</v>
+        <v>1.216</v>
       </c>
       <c r="I27" s="7">
-        <v>0.245</v>
-      </c>
-      <c r="J27">
-        <v>5.5E-2</v>
+        <v>0.35</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.19</v>
       </c>
       <c r="K27" s="7">
-        <v>0.28999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -2198,108 +2198,108 @@
         <v>25</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>98</v>
+      <c r="A28" t="s">
+        <v>109</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D28" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="H28" s="7">
-        <v>1.2</v>
+        <v>1.3879999999999999</v>
       </c>
       <c r="I28" s="7">
         <v>0.35</v>
       </c>
-      <c r="J28">
-        <v>0.19</v>
+      <c r="J28" s="7">
+        <v>0.35</v>
       </c>
       <c r="K28" s="7">
         <v>0.35</v>
       </c>
       <c r="L28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>60</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="7">
-        <v>-10</v>
-      </c>
-      <c r="N28" s="7">
-        <v>50</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="B29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7">
-        <v>100</v>
+        <v>6000</v>
       </c>
       <c r="H29" s="7">
-        <v>1.3</v>
+        <v>1.391</v>
       </c>
       <c r="I29" s="7">
         <v>0.35</v>
       </c>
       <c r="J29">
-        <v>0.19</v>
+        <v>0.35</v>
       </c>
       <c r="K29" s="7">
         <v>0.35</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="N29" s="7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>40</v>
@@ -2308,29 +2308,29 @@
         <v>16</v>
       </c>
       <c r="D30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G30" s="7">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H30" s="7">
-        <v>1.216</v>
+        <v>0.3</v>
       </c>
       <c r="I30" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="J30" s="7">
-        <v>0.19</v>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J30">
+        <v>5.5E-2</v>
       </c>
       <c r="K30" s="7">
-        <v>0.35</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2341,292 +2341,286 @@
       <c r="O30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P30" s="2" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G31" s="7">
-        <v>6000</v>
+        <v>700</v>
       </c>
       <c r="H31" s="7">
-        <v>1.3879999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="I31" s="7">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="J31" s="7">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="K31" s="7">
-        <v>0.35</v>
+        <v>0.71</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="N31" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D32" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7">
-        <v>6000</v>
+        <v>700</v>
       </c>
       <c r="H32" s="7">
-        <v>1.391</v>
+        <v>3.4</v>
       </c>
       <c r="I32" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="J32">
-        <v>0.35</v>
+        <v>0.9</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.36199999999999999</v>
       </c>
       <c r="K32" s="7">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M32" s="7">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="N32" s="7">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="D33" s="7">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>43.2</v>
+      </c>
+      <c r="E33">
+        <v>3.25</v>
+      </c>
       <c r="F33">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="H33" s="7">
-        <v>0.3</v>
+        <v>18</v>
       </c>
       <c r="I33" s="7">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="J33">
-        <v>5.5E-2</v>
+        <v>1.2</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.69</v>
       </c>
       <c r="K33" s="7">
-        <v>0.14299999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M33" s="7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="N33" s="7">
         <v>40</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>25</v>
+        <v>131</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34">
+        <v>0.86</v>
+      </c>
       <c r="F34">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G34" s="7">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H34" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0.26</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M34" s="7">
-        <v>-20</v>
-      </c>
-      <c r="N34" s="7">
-        <v>65</v>
+        <v>2.6</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34">
+        <v>-40</v>
+      </c>
+      <c r="N34">
+        <v>60</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D35" s="7">
         <v>2</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35">
+        <v>3.5</v>
+      </c>
       <c r="F35">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G35" s="7">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="7">
-        <v>3.4</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M35" s="7">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M35">
         <v>-20</v>
       </c>
-      <c r="N35" s="7">
-        <v>65</v>
+      <c r="N35">
+        <v>50</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C36">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D36" s="7">
-        <v>43.2</v>
+        <v>6</v>
       </c>
       <c r="E36">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G36" s="7">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="H36" s="7">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="I36" s="7">
         <v>1.2</v>
       </c>
       <c r="J36" s="7">
-        <v>0.69</v>
+        <v>0.35</v>
       </c>
       <c r="K36" s="7">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="M36" s="7">
         <v>-10</v>
       </c>
       <c r="N36" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>134</v>
@@ -2634,320 +2628,314 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E37">
-        <v>0.86</v>
+        <v>0.15</v>
       </c>
       <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37" s="7">
+        <v>4000</v>
+      </c>
+      <c r="H37" s="7">
+        <v>1.65</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="7">
+        <v>-15</v>
+      </c>
+      <c r="N37" s="7">
         <v>50</v>
       </c>
-      <c r="G37" s="7">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2.6</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37">
-        <v>-40</v>
-      </c>
-      <c r="N37">
-        <v>60</v>
-      </c>
       <c r="O37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C38">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D38" s="7">
+        <v>5</v>
+      </c>
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>3.5</v>
-      </c>
       <c r="F38">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G38" s="7">
         <v>1000</v>
       </c>
       <c r="H38" s="7">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38">
+        <v>6.6</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="7">
         <v>-20</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="7">
         <v>50</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C39">
-        <v>40</v>
-      </c>
-      <c r="D39" s="7">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39" s="7">
+        <v>90</v>
+      </c>
+      <c r="G39">
         <v>2000</v>
       </c>
-      <c r="H39" s="7">
-        <v>6.5</v>
-      </c>
-      <c r="I39" s="7">
+      <c r="H39">
+        <v>3.6</v>
+      </c>
+      <c r="I39">
+        <v>1.6</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39">
         <v>1.2</v>
       </c>
-      <c r="J39" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M39" s="7">
-        <v>-10</v>
-      </c>
-      <c r="N39" s="7">
-        <v>50</v>
-      </c>
-      <c r="O39" s="7" t="s">
+      <c r="L39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" t="s">
         <v>25</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>45</v>
-      </c>
-      <c r="D40" s="7">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>0.15</v>
+        <v>0.6</v>
       </c>
       <c r="F40">
-        <v>36</v>
-      </c>
-      <c r="G40" s="7">
-        <v>4000</v>
-      </c>
-      <c r="H40" s="7">
-        <v>1.65</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M40" s="7">
-        <v>-15</v>
-      </c>
-      <c r="N40" s="7">
-        <v>50</v>
-      </c>
-      <c r="O40" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G40">
+        <v>2000</v>
+      </c>
+      <c r="H40">
+        <v>2.4</v>
+      </c>
+      <c r="I40">
+        <v>1.2</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40">
+        <v>1.06</v>
+      </c>
+      <c r="L40" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" t="s">
         <v>25</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C41">
-        <v>20</v>
-      </c>
-      <c r="D41" s="7">
-        <v>5</v>
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>36</v>
-      </c>
-      <c r="G41" s="7">
+        <v>80</v>
+      </c>
+      <c r="G41">
         <v>1000</v>
       </c>
-      <c r="H41" s="7">
-        <v>6.6</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0.82</v>
-      </c>
-      <c r="J41" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="K41" s="7">
-        <v>0.82</v>
-      </c>
+      <c r="H41">
+        <v>2.5</v>
+      </c>
+      <c r="I41">
+        <v>1.6</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M41" s="7">
-        <v>-20</v>
-      </c>
-      <c r="N41" s="7">
-        <v>50</v>
-      </c>
-      <c r="O41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" t="s">
         <v>25</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>1.2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G42">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="H42">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="I42">
-        <v>1.6</v>
-      </c>
-      <c r="J42" s="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="J42">
+        <v>0.45</v>
+      </c>
       <c r="K42">
-        <v>1.2</v>
-      </c>
-      <c r="L42" t="s">
-        <v>96</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M42">
+        <v>-10</v>
+      </c>
+      <c r="N42">
+        <v>40</v>
+      </c>
       <c r="O42" t="s">
         <v>25</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C43">
-        <v>40</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>60</v>
-      </c>
-      <c r="G43">
-        <v>2000</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43">
-        <v>2.4</v>
+        <v>11.5</v>
       </c>
       <c r="I43">
-        <v>1.2</v>
-      </c>
-      <c r="J43" s="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="J43">
+        <v>0.51</v>
+      </c>
       <c r="K43">
-        <v>1.06</v>
-      </c>
-      <c r="L43" t="s">
-        <v>96</v>
+        <v>1.8</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2955,12 +2943,12 @@
         <v>25</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>40</v>
@@ -2969,85 +2957,79 @@
         <v>60</v>
       </c>
       <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="F44">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G44">
         <v>1000</v>
       </c>
       <c r="H44">
-        <v>2.5</v>
-      </c>
-      <c r="I44">
-        <v>1.6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="M44">
+        <v>-20</v>
+      </c>
+      <c r="N44">
+        <v>55</v>
+      </c>
       <c r="O44" t="s">
         <v>25</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>10.5</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E45" s="1"/>
       <c r="F45">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G45">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="H45">
-        <v>10.5</v>
+        <v>2.8</v>
       </c>
       <c r="I45">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="J45">
         <v>0.45</v>
       </c>
       <c r="K45">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M45">
-        <v>-10</v>
-      </c>
-      <c r="N45">
-        <v>40</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" t="s">
         <v>25</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -3057,527 +3039,535 @@
       <c r="B46" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46">
+        <v>100</v>
+      </c>
       <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
       <c r="F46">
-        <v>200</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="G46">
+        <v>3000</v>
+      </c>
       <c r="H46">
-        <v>11.5</v>
+        <v>5.2</v>
       </c>
       <c r="I46">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="J46">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D47">
-        <v>10</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>1.2</v>
+      </c>
       <c r="F47">
         <v>120</v>
       </c>
       <c r="G47">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="H47">
-        <v>3</v>
-      </c>
-      <c r="I47" s="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I47">
+        <v>1.6</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M47">
-        <v>-20</v>
-      </c>
-      <c r="N47">
-        <v>55</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
       <c r="O47" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C48">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48">
-        <v>60</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48">
         <v>1500</v>
       </c>
       <c r="H48">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="I48">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="J48">
-        <v>0.45</v>
-      </c>
-      <c r="K48">
-        <v>1.18</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="1"/>
       <c r="L48" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="M48">
+        <v>-22</v>
+      </c>
+      <c r="N48">
+        <v>122</v>
+      </c>
       <c r="O48" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>15</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F49">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="G49">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="H49">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="I49">
-        <v>1.2</v>
-      </c>
-      <c r="J49">
-        <v>0.45</v>
-      </c>
-      <c r="K49">
-        <v>1.3</v>
-      </c>
+        <v>1.66</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
       <c r="L49" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="M49">
+        <v>-20</v>
+      </c>
+      <c r="N49">
+        <v>65</v>
+      </c>
       <c r="O49" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="F50">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="G50">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H50">
-        <v>9.1999999999999993</v>
+        <v>1.5</v>
       </c>
       <c r="I50">
-        <v>1.6</v>
-      </c>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0.2</v>
+      </c>
+      <c r="K50">
+        <v>0.4</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50">
+        <v>-25</v>
+      </c>
+      <c r="N50">
+        <v>60</v>
+      </c>
       <c r="O50" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
       </c>
       <c r="C51">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D51">
         <v>5</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="E51">
+        <v>0.2</v>
+      </c>
+      <c r="F51">
+        <v>80</v>
+      </c>
       <c r="G51">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="H51">
-        <v>2.4</v>
+        <v>0.95</v>
       </c>
       <c r="I51">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="J51">
-        <v>0.5</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="7" t="s">
-        <v>105</v>
-      </c>
+        <v>0.16</v>
+      </c>
+      <c r="K51">
+        <v>0.35</v>
+      </c>
+      <c r="L51" s="1"/>
       <c r="M51">
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="N51">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="O51" t="s">
-        <v>172</v>
+        <v>25</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C52">
-        <v>45</v>
-      </c>
-      <c r="D52">
+      <c r="A52" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="8">
+        <v>60</v>
+      </c>
+      <c r="D52" s="9">
         <v>15</v>
       </c>
-      <c r="E52">
-        <v>0.9</v>
-      </c>
-      <c r="F52">
+      <c r="E52" s="4"/>
+      <c r="F52" s="8">
         <v>90</v>
       </c>
-      <c r="G52">
-        <v>1500</v>
-      </c>
-      <c r="H52">
-        <v>5.9</v>
-      </c>
-      <c r="I52">
-        <v>1.66</v>
-      </c>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52">
-        <v>-20</v>
-      </c>
-      <c r="N52">
-        <v>65</v>
-      </c>
-      <c r="O52" t="s">
-        <v>25</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>178</v>
+      <c r="G52" s="8">
+        <v>4200</v>
+      </c>
+      <c r="H52" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="I52" s="8">
+        <v>1.46</v>
+      </c>
+      <c r="J52" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="K52" s="8">
+        <v>1.53</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="F53">
         <v>80</v>
       </c>
       <c r="G53">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="H53">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>1.1599999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J53">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="K53">
-        <v>0.4</v>
-      </c>
-      <c r="L53" s="1"/>
-      <c r="M53">
-        <v>-25</v>
-      </c>
-      <c r="N53">
-        <v>60</v>
-      </c>
+        <v>0.95</v>
+      </c>
+      <c r="L53" t="s">
+        <v>92</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
       <c r="O53" t="s">
         <v>25</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>0.2</v>
+        <v>3.5</v>
       </c>
       <c r="F54">
         <v>80</v>
       </c>
       <c r="G54">
-        <v>3500</v>
+        <v>5000</v>
       </c>
       <c r="H54">
-        <v>0.95</v>
+        <v>6.5</v>
       </c>
       <c r="I54">
-        <v>0.92</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J54">
-        <v>0.16</v>
+        <v>0.45</v>
       </c>
       <c r="K54">
-        <v>0.35</v>
-      </c>
-      <c r="L54" s="1"/>
-      <c r="M54">
-        <v>-25</v>
-      </c>
-      <c r="N54">
-        <v>60</v>
-      </c>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="L54" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
       <c r="O54" t="s">
         <v>25</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="8" t="s">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="C55" s="8">
-        <v>60</v>
-      </c>
-      <c r="D55" s="9">
-        <v>15</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="8">
-        <v>90</v>
-      </c>
-      <c r="G55" s="8">
-        <v>4200</v>
-      </c>
-      <c r="H55" s="8">
-        <v>3.2</v>
-      </c>
-      <c r="I55" s="8">
-        <v>1.46</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0.36</v>
-      </c>
-      <c r="K55" s="8">
-        <v>1.53</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P55" s="10" t="s">
-        <v>58</v>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2.5</v>
+      </c>
+      <c r="F55">
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <v>5000</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J55">
+        <v>0.48</v>
+      </c>
+      <c r="K55">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="L55" t="s">
+        <v>92</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
-        <v>25</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
+      <c r="A56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="8">
+        <v>30</v>
+      </c>
+      <c r="D56" s="8">
         <v>2.5</v>
       </c>
-      <c r="F56">
-        <v>80</v>
-      </c>
-      <c r="G56">
-        <v>5000</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="I56">
-        <v>0.6</v>
-      </c>
-      <c r="J56">
+      <c r="E56" s="4"/>
+      <c r="F56" s="8">
+        <v>30</v>
+      </c>
+      <c r="G56" s="8">
+        <v>300</v>
+      </c>
+      <c r="H56" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="I56" s="8">
         <v>0.48</v>
       </c>
-      <c r="K56">
-        <v>0.95</v>
-      </c>
-      <c r="L56" t="s">
-        <v>96</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" t="s">
-        <v>25</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>73</v>
+      <c r="J56" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C57">
         <v>40</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F57">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="H57">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="I57">
-        <v>1.1599999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="J57">
         <v>0.45</v>
       </c>
       <c r="K57">
-        <v>1.1599999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="L57" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -3585,408 +3575,400 @@
         <v>25</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C58">
-        <v>25</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6">
         <v>2.5</v>
       </c>
+      <c r="E58" s="1"/>
       <c r="F58">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>250</v>
+      </c>
+      <c r="H58">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.123</v>
+      </c>
+      <c r="J58">
+        <v>0.1</v>
+      </c>
+      <c r="K58">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58">
+        <v>-10</v>
+      </c>
+      <c r="N58">
+        <v>43</v>
+      </c>
+      <c r="O58" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59">
         <v>80</v>
       </c>
-      <c r="G58">
-        <v>5000</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="I58">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="J58">
-        <v>0.48</v>
-      </c>
-      <c r="K58">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="L58" t="s">
-        <v>96</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" t="s">
-        <v>25</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="8">
-        <v>30</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59">
+        <v>0.3</v>
+      </c>
+      <c r="F59">
+        <v>130</v>
+      </c>
+      <c r="G59">
+        <v>3600</v>
+      </c>
+      <c r="H59">
         <v>2.5</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="8">
-        <v>30</v>
-      </c>
-      <c r="G59" s="8">
-        <v>300</v>
-      </c>
-      <c r="H59" s="8">
-        <v>2.25</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0.48</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0.48</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P59" s="10" t="s">
-        <v>55</v>
+      <c r="I59">
+        <v>0.81</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59">
+        <v>-30</v>
+      </c>
+      <c r="N59">
+        <v>40</v>
+      </c>
+      <c r="O59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F60">
+        <v>110</v>
+      </c>
+      <c r="G60">
+        <v>3000</v>
+      </c>
+      <c r="H60">
+        <v>6.5</v>
+      </c>
+      <c r="I60">
+        <v>1.81</v>
+      </c>
+      <c r="J60">
+        <v>0.67</v>
+      </c>
+      <c r="K60">
+        <v>1.57</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60">
+        <v>-40</v>
+      </c>
+      <c r="N60">
         <v>50</v>
       </c>
-      <c r="G60">
-        <v>500</v>
-      </c>
-      <c r="H60">
-        <v>5.5</v>
-      </c>
-      <c r="I60">
-        <v>1.4</v>
-      </c>
-      <c r="J60">
-        <v>0.45</v>
-      </c>
-      <c r="K60">
-        <v>1.4</v>
-      </c>
-      <c r="L60" t="s">
-        <v>96</v>
-      </c>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
       <c r="O60" t="s">
         <v>25</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" s="6">
-        <v>2.5</v>
+        <v>90</v>
+      </c>
+      <c r="D61">
+        <v>20</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G61">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="H61">
-        <v>3.3000000000000002E-2</v>
+        <v>4.2</v>
       </c>
       <c r="I61">
-        <v>0.123</v>
+        <v>1.42</v>
       </c>
       <c r="J61">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="K61">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="L61" s="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L61" t="s">
+        <v>93</v>
+      </c>
       <c r="M61">
+        <v>-40</v>
+      </c>
+      <c r="N61">
+        <v>50</v>
+      </c>
+      <c r="O61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="8">
+        <v>28</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="8">
+        <v>60</v>
+      </c>
+      <c r="G62" s="8">
+        <v>500</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="8">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M62" s="8">
         <v>-10</v>
       </c>
-      <c r="N61">
-        <v>43</v>
-      </c>
-      <c r="O61" t="s">
-        <v>25</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62">
-        <v>80</v>
-      </c>
-      <c r="D62">
-        <v>25</v>
-      </c>
-      <c r="E62">
-        <v>0.3</v>
-      </c>
-      <c r="F62">
-        <v>130</v>
-      </c>
-      <c r="G62">
-        <v>3600</v>
-      </c>
-      <c r="H62">
-        <v>2.5</v>
-      </c>
-      <c r="I62">
-        <v>0.81</v>
-      </c>
-      <c r="J62" s="1"/>
-      <c r="K62">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="L62" s="1"/>
-      <c r="M62">
-        <v>-30</v>
-      </c>
-      <c r="N62">
-        <v>40</v>
-      </c>
-      <c r="O62" t="s">
-        <v>25</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>44</v>
+      <c r="N62" s="8">
+        <v>40</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>110</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63">
-        <v>3000</v>
+        <v>152</v>
       </c>
       <c r="H63">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="I63">
-        <v>1.81</v>
+        <v>0.32</v>
       </c>
       <c r="J63">
-        <v>0.67</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K63">
-        <v>1.57</v>
+        <v>0.32</v>
       </c>
       <c r="L63" s="1"/>
-      <c r="M63">
-        <v>-40</v>
-      </c>
-      <c r="N63">
-        <v>50</v>
-      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
       <c r="O63" t="s">
         <v>25</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D64">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="G64">
-        <v>5000</v>
+        <v>7620</v>
       </c>
       <c r="H64">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="I64">
-        <v>1.42</v>
-      </c>
-      <c r="J64">
-        <v>0.18</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J64" s="1"/>
       <c r="K64">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="L64" t="s">
-        <v>97</v>
-      </c>
-      <c r="M64">
-        <v>-40</v>
-      </c>
-      <c r="N64">
-        <v>50</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
       <c r="O64" t="s">
         <v>25</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>37</v>
+      <c r="P64" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="8">
-        <v>28</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="8">
-        <v>60</v>
-      </c>
-      <c r="G65" s="8">
-        <v>500</v>
-      </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="8">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0.31</v>
-      </c>
-      <c r="K65" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="M65" s="8">
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65" s="7">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65">
+        <v>55</v>
+      </c>
+      <c r="G65" s="7">
+        <v>4500</v>
+      </c>
+      <c r="H65" s="7">
+        <v>0.32</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="J65" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="K65" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M65" s="7">
         <v>-10</v>
       </c>
-      <c r="N65" s="8">
-        <v>40</v>
-      </c>
-      <c r="O65" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P65" s="10" t="s">
-        <v>21</v>
+      <c r="N65" s="7">
+        <v>40</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>0.2</v>
-      </c>
-      <c r="F66" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66">
+        <v>83</v>
+      </c>
       <c r="G66">
         <v>152</v>
       </c>
       <c r="H66">
-        <v>1.8</v>
+        <v>6.3</v>
       </c>
       <c r="I66">
-        <v>0.32</v>
-      </c>
-      <c r="J66">
-        <v>7.0000000000000007E-2</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="J66" s="1"/>
       <c r="K66">
-        <v>0.32</v>
+        <v>1.4</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -3995,38 +3977,38 @@
         <v>25</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D67">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="G67">
-        <v>7620</v>
+        <v>152</v>
       </c>
       <c r="H67">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="I67">
-        <v>0.75</v>
+        <v>1.4</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -4034,87 +4016,85 @@
       <c r="O67" t="s">
         <v>25</v>
       </c>
-      <c r="P67" t="s">
-        <v>145</v>
+      <c r="P67" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68" s="7">
-        <v>4</v>
-      </c>
-      <c r="E68" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>0.8</v>
+      </c>
+      <c r="E68">
+        <v>0.4</v>
+      </c>
       <c r="F68">
-        <v>55</v>
-      </c>
-      <c r="G68" s="7">
-        <v>4500</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0.32</v>
-      </c>
-      <c r="I68" s="7">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="J68" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="K68" s="7">
-        <v>0.67</v>
-      </c>
-      <c r="L68" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M68" s="7">
+        <v>89</v>
+      </c>
+      <c r="G68">
+        <v>122</v>
+      </c>
+      <c r="H68">
+        <v>1.8</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="4"/>
+      <c r="K68">
+        <v>0.5</v>
+      </c>
+      <c r="L68" t="s">
+        <v>92</v>
+      </c>
+      <c r="M68">
         <v>-10</v>
       </c>
-      <c r="N68" s="7">
-        <v>40</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>128</v>
+      <c r="N68">
+        <v>40</v>
+      </c>
+      <c r="O68" t="s">
+        <v>25</v>
+      </c>
+      <c r="P68" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>152</v>
       </c>
       <c r="H69">
-        <v>6.3</v>
+        <v>1.3</v>
       </c>
       <c r="I69">
-        <v>2.8</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69">
-        <v>1.4</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -4123,132 +4103,6 @@
         <v>25</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70">
-        <v>90</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70" s="1"/>
-      <c r="F70">
-        <v>81</v>
-      </c>
-      <c r="G70">
-        <v>152</v>
-      </c>
-      <c r="H70">
-        <v>1.9</v>
-      </c>
-      <c r="I70">
-        <v>1.4</v>
-      </c>
-      <c r="J70" s="1"/>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" t="s">
-        <v>25</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71">
-        <v>24</v>
-      </c>
-      <c r="D71">
-        <v>0.8</v>
-      </c>
-      <c r="E71">
-        <v>0.4</v>
-      </c>
-      <c r="F71">
-        <v>89</v>
-      </c>
-      <c r="G71">
-        <v>122</v>
-      </c>
-      <c r="H71">
-        <v>1.8</v>
-      </c>
-      <c r="I71" s="1"/>
-      <c r="J71" s="4"/>
-      <c r="K71">
-        <v>0.5</v>
-      </c>
-      <c r="L71" t="s">
-        <v>96</v>
-      </c>
-      <c r="M71">
-        <v>-10</v>
-      </c>
-      <c r="N71">
-        <v>40</v>
-      </c>
-      <c r="O71" t="s">
-        <v>25</v>
-      </c>
-      <c r="P71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>32</v>
-      </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72">
-        <v>50</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72">
-        <v>37</v>
-      </c>
-      <c r="G72">
-        <v>152</v>
-      </c>
-      <c r="H72">
-        <v>1.3</v>
-      </c>
-      <c r="I72">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="J72" s="1"/>
-      <c r="K72">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" t="s">
-        <v>25</v>
-      </c>
-      <c r="P72" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4257,76 +4111,73 @@
     <sortCondition ref="B3:B72"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="P65" r:id="rId1"/>
-    <hyperlink ref="P66" r:id="rId2"/>
-    <hyperlink ref="P69" r:id="rId3"/>
-    <hyperlink ref="P70" r:id="rId4"/>
-    <hyperlink ref="P72" r:id="rId5"/>
-    <hyperlink ref="P64" r:id="rId6"/>
-    <hyperlink ref="P62" r:id="rId7"/>
-    <hyperlink ref="P63" r:id="rId8"/>
-    <hyperlink ref="P61" r:id="rId9"/>
-    <hyperlink ref="P60" r:id="rId10"/>
-    <hyperlink ref="P59" r:id="rId11"/>
-    <hyperlink ref="P55" r:id="rId12"/>
-    <hyperlink ref="P53" r:id="rId13"/>
-    <hyperlink ref="P54" r:id="rId14"/>
+    <hyperlink ref="P62" r:id="rId1"/>
+    <hyperlink ref="P63" r:id="rId2"/>
+    <hyperlink ref="P66" r:id="rId3"/>
+    <hyperlink ref="P67" r:id="rId4"/>
+    <hyperlink ref="P69" r:id="rId5"/>
+    <hyperlink ref="P61" r:id="rId6"/>
+    <hyperlink ref="P59" r:id="rId7"/>
+    <hyperlink ref="P60" r:id="rId8"/>
+    <hyperlink ref="P58" r:id="rId9"/>
+    <hyperlink ref="P57" r:id="rId10"/>
+    <hyperlink ref="P56" r:id="rId11"/>
+    <hyperlink ref="P52" r:id="rId12"/>
+    <hyperlink ref="P50" r:id="rId13"/>
+    <hyperlink ref="P51" r:id="rId14"/>
     <hyperlink ref="P3" r:id="rId15"/>
-    <hyperlink ref="P58" r:id="rId16"/>
-    <hyperlink ref="P56" r:id="rId17"/>
-    <hyperlink ref="P57" r:id="rId18"/>
+    <hyperlink ref="P55" r:id="rId16"/>
+    <hyperlink ref="P53" r:id="rId17"/>
+    <hyperlink ref="P54" r:id="rId18"/>
     <hyperlink ref="P5" r:id="rId19"/>
     <hyperlink ref="P6" r:id="rId20"/>
-    <hyperlink ref="P7" r:id="rId21" location="Single_Soldier_I" display="https://en.wikipedia.org/wiki/AFT_UAV - Single_Soldier_I"/>
-    <hyperlink ref="P11" r:id="rId22"/>
+    <hyperlink ref="P10" r:id="rId21"/>
+    <hyperlink ref="P8" r:id="rId22"/>
     <hyperlink ref="P9" r:id="rId23"/>
-    <hyperlink ref="P10" r:id="rId24"/>
-    <hyperlink ref="P8" r:id="rId25" location="Hexacopter" display="https://en.wikipedia.org/wiki/AI_Bird_UAV - Hexacopter"/>
-    <hyperlink ref="P12" r:id="rId26" location="Hexacopter" display="https://en.wikipedia.org/wiki/AI_Bird_UAV - Hexacopter"/>
-    <hyperlink ref="P13" r:id="rId27" location="Hexacopter" display="https://en.wikipedia.org/wiki/AI_Bird_UAV - Hexacopter"/>
-    <hyperlink ref="P14" r:id="rId28" location="ASN-1" display="https://en.wikipedia.org/wiki/Aisheng_ASN-1 - ASN-1"/>
-    <hyperlink ref="P15" r:id="rId29" location="ASN-1" display="https://en.wikipedia.org/wiki/Aisheng_ASN-1 - ASN-1"/>
-    <hyperlink ref="P28" r:id="rId30" location="Flame_Wheel, " display="https://en.wikipedia.org/wiki/DJI#Flame_Wheel, "/>
-    <hyperlink ref="P29" r:id="rId31"/>
-    <hyperlink ref="P25" r:id="rId32"/>
-    <hyperlink ref="P24" r:id="rId33"/>
-    <hyperlink ref="P23" r:id="rId34"/>
-    <hyperlink ref="P32" r:id="rId35"/>
-    <hyperlink ref="P27" r:id="rId36" display="https://www.djimsk.ru/catalog/products/mavic/mavic_mini/kvadrokopter_dji_mavic_mini.html"/>
-    <hyperlink ref="P31" r:id="rId37"/>
-    <hyperlink ref="P22" r:id="rId38"/>
-    <hyperlink ref="P30" r:id="rId39" location="Flame_Wheel" display="https://en.wikipedia.org/wiki/DJI - Flame_Wheel"/>
-    <hyperlink ref="P26" r:id="rId40" location="Flame_Wheel" display="https://en.wikipedia.org/wiki/DJI - Flame_Wheel"/>
-    <hyperlink ref="P4" r:id="rId41"/>
-    <hyperlink ref="P34" r:id="rId42"/>
-    <hyperlink ref="P35" r:id="rId43"/>
-    <hyperlink ref="P68" r:id="rId44"/>
-    <hyperlink ref="P20" r:id="rId45" location="T16" display="https://en.wikipedia.org/wiki/Creaton_UAV - T16"/>
-    <hyperlink ref="P21" r:id="rId46" location="T16" display="https://en.wikipedia.org/wiki/Creaton_UAV - T16"/>
-    <hyperlink ref="P36" r:id="rId47"/>
-    <hyperlink ref="P40" r:id="rId48" location="Swift_07" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - Swift_07"/>
-    <hyperlink ref="P41" r:id="rId49" location="Swift_07" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - Swift_07"/>
-    <hyperlink ref="P39" r:id="rId50" location="Swift_07" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - Swift_07"/>
-    <hyperlink ref="P17" r:id="rId51" location="HW-110" display="https://en.wikipedia.org/wiki/CASIC_HW-100_series_UAV - HW-110"/>
-    <hyperlink ref="P19" r:id="rId52" location="Clairvoyance_I" display="https://en.wikipedia.org/wiki/Xinying_Clairvoyance - Clairvoyance_I"/>
-    <hyperlink ref="P16" r:id="rId53" location="HW-100_Sparrowhawk" display="https://en.wikipedia.org/wiki/CASIC_HW-100_series_UAV - HW-100_Sparrowhawk"/>
-    <hyperlink ref="P18" r:id="rId54" location="T-8" display="https://en.wikipedia.org/wiki/CASIC_TF - T-8"/>
-    <hyperlink ref="P37" r:id="rId55" location="X401_Whirlwind" display="https://en.wikipedia.org/wiki/Chaoyi_UAV - X401_Whirlwind"/>
-    <hyperlink ref="P38" r:id="rId56" location="X601_Photographer" display="https://en.wikipedia.org/wiki/Chaoyi_UAV - X601_Photographer"/>
-    <hyperlink ref="P42" r:id="rId57" location="China_Eagle_Outpost" display="https://en.wikipedia.org/wiki/Norinco_China_Eagle - China_Eagle_Outpost"/>
-    <hyperlink ref="P43" r:id="rId58" location="White_Bird_1A" display="https://en.wikipedia.org/wiki/PUT_UAV - White_Bird_1A"/>
-    <hyperlink ref="P44" r:id="rId59" location="Traffic_UAV" display="https://en.wikipedia.org/wiki/SEU_UAV - Traffic_UAV"/>
-    <hyperlink ref="P45" r:id="rId60" location="SLA_multirotors" display="https://en.wikipedia.org/wiki/SLA_UAV - SLA_multirotors"/>
-    <hyperlink ref="P46" r:id="rId61" location="Dolphin" display="https://en.wikipedia.org/wiki/TJU_UAV - Dolphin"/>
-    <hyperlink ref="P47" r:id="rId62" location="Swan_04" display="https://en.wikipedia.org/wiki/Trifeet_UAV - Swan_04"/>
-    <hyperlink ref="P48" r:id="rId63" location="Swan_04" display="https://en.wikipedia.org/wiki/Trifeet_UAV - Swan_04"/>
-    <hyperlink ref="P49" r:id="rId64" location="Developer_I" display="https://en.wikipedia.org/wiki/Viga_Tech_UAVs - Developer_I"/>
-    <hyperlink ref="P50" r:id="rId65" location="Solar_Eagle_C2" display="https://en.wikipedia.org/wiki/ZFWT_Solar_Eagle - Solar_Eagle_C2"/>
-    <hyperlink ref="P51" r:id="rId66" location="Solar_Eagle_C2" display="https://en.wikipedia.org/wiki/ZFWT_Solar_Eagle - Solar_Eagle_C2"/>
-    <hyperlink ref="P52" r:id="rId67" location="E-EPIC" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - E-EPIC"/>
+    <hyperlink ref="P7" r:id="rId24" location="Hexacopter" display="https://en.wikipedia.org/wiki/AI_Bird_UAV - Hexacopter"/>
+    <hyperlink ref="P11" r:id="rId25" location="Hexacopter" display="https://en.wikipedia.org/wiki/AI_Bird_UAV - Hexacopter"/>
+    <hyperlink ref="P12" r:id="rId26" location="ASN-1" display="https://en.wikipedia.org/wiki/Aisheng_ASN-1 - ASN-1"/>
+    <hyperlink ref="P25" r:id="rId27" location="Flame_Wheel, " display="https://en.wikipedia.org/wiki/DJI#Flame_Wheel, "/>
+    <hyperlink ref="P26" r:id="rId28"/>
+    <hyperlink ref="P22" r:id="rId29"/>
+    <hyperlink ref="P21" r:id="rId30"/>
+    <hyperlink ref="P20" r:id="rId31"/>
+    <hyperlink ref="P29" r:id="rId32"/>
+    <hyperlink ref="P24" r:id="rId33" display="https://www.djimsk.ru/catalog/products/mavic/mavic_mini/kvadrokopter_dji_mavic_mini.html"/>
+    <hyperlink ref="P28" r:id="rId34"/>
+    <hyperlink ref="P19" r:id="rId35"/>
+    <hyperlink ref="P27" r:id="rId36" location="Flame_Wheel" display="https://en.wikipedia.org/wiki/DJI - Flame_Wheel"/>
+    <hyperlink ref="P23" r:id="rId37" location="Flame_Wheel" display="https://en.wikipedia.org/wiki/DJI - Flame_Wheel"/>
+    <hyperlink ref="P4" r:id="rId38"/>
+    <hyperlink ref="P31" r:id="rId39"/>
+    <hyperlink ref="P32" r:id="rId40"/>
+    <hyperlink ref="P65" r:id="rId41"/>
+    <hyperlink ref="P17" r:id="rId42" location="T16" display="https://en.wikipedia.org/wiki/Creaton_UAV - T16"/>
+    <hyperlink ref="P18" r:id="rId43" location="T16" display="https://en.wikipedia.org/wiki/Creaton_UAV - T16"/>
+    <hyperlink ref="P33" r:id="rId44"/>
+    <hyperlink ref="P37" r:id="rId45" location="Swift_07" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - Swift_07"/>
+    <hyperlink ref="P38" r:id="rId46" location="Swift_07" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - Swift_07"/>
+    <hyperlink ref="P36" r:id="rId47" location="Swift_07" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - Swift_07"/>
+    <hyperlink ref="P14" r:id="rId48" location="HW-110" display="https://en.wikipedia.org/wiki/CASIC_HW-100_series_UAV - HW-110"/>
+    <hyperlink ref="P16" r:id="rId49" location="Clairvoyance_I" display="https://en.wikipedia.org/wiki/Xinying_Clairvoyance - Clairvoyance_I"/>
+    <hyperlink ref="P13" r:id="rId50" location="HW-100_Sparrowhawk" display="https://en.wikipedia.org/wiki/CASIC_HW-100_series_UAV - HW-100_Sparrowhawk"/>
+    <hyperlink ref="P15" r:id="rId51" location="T-8" display="https://en.wikipedia.org/wiki/CASIC_TF - T-8"/>
+    <hyperlink ref="P34" r:id="rId52" location="X401_Whirlwind" display="https://en.wikipedia.org/wiki/Chaoyi_UAV - X401_Whirlwind"/>
+    <hyperlink ref="P35" r:id="rId53" location="X601_Photographer" display="https://en.wikipedia.org/wiki/Chaoyi_UAV - X601_Photographer"/>
+    <hyperlink ref="P39" r:id="rId54" location="China_Eagle_Outpost" display="https://en.wikipedia.org/wiki/Norinco_China_Eagle - China_Eagle_Outpost"/>
+    <hyperlink ref="P40" r:id="rId55" location="White_Bird_1A" display="https://en.wikipedia.org/wiki/PUT_UAV - White_Bird_1A"/>
+    <hyperlink ref="P41" r:id="rId56" location="Traffic_UAV" display="https://en.wikipedia.org/wiki/SEU_UAV - Traffic_UAV"/>
+    <hyperlink ref="P42" r:id="rId57" location="SLA_multirotors" display="https://en.wikipedia.org/wiki/SLA_UAV - SLA_multirotors"/>
+    <hyperlink ref="P43" r:id="rId58" location="Dolphin" display="https://en.wikipedia.org/wiki/TJU_UAV - Dolphin"/>
+    <hyperlink ref="P44" r:id="rId59" location="Swan_04" display="https://en.wikipedia.org/wiki/Trifeet_UAV - Swan_04"/>
+    <hyperlink ref="P45" r:id="rId60" location="Swan_04" display="https://en.wikipedia.org/wiki/Trifeet_UAV - Swan_04"/>
+    <hyperlink ref="P46" r:id="rId61" location="Developer_I" display="https://en.wikipedia.org/wiki/Viga_Tech_UAVs - Developer_I"/>
+    <hyperlink ref="P47" r:id="rId62" location="Solar_Eagle_C2" display="https://en.wikipedia.org/wiki/ZFWT_Solar_Eagle - Solar_Eagle_C2"/>
+    <hyperlink ref="P48" r:id="rId63" location="Solar_Eagle_C2" display="https://en.wikipedia.org/wiki/ZFWT_Solar_Eagle - Solar_Eagle_C2"/>
+    <hyperlink ref="P49" r:id="rId64" location="E-EPIC" display="https://en.wikipedia.org/wiki/Zero_Tech_UAV - E-EPIC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
 
